--- a/testing_results.xlsx
+++ b/testing_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starl\PycharmProjects\ECE542_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6B31B-67C4-4510-9AF5-8D502893D62D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8D40E-E001-4099-88A9-34056848EB86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4210" xr2:uid="{A87CFCD8-92F2-4FBE-AFD5-AE4DE3A76946}"/>
   </bookViews>
@@ -33,20 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Loss</t>
   </si>
   <si>
-    <t>Acc</t>
-  </si>
-  <si>
-    <t>Rum</t>
-  </si>
-  <si>
-    <t>datagen_optimal_1000_gray</t>
-  </si>
-  <si>
     <t>datagen_100epochs_color</t>
   </si>
   <si>
@@ -144,6 +135,18 @@
   </si>
   <si>
     <t>relu</t>
+  </si>
+  <si>
+    <t>Testing Set Up</t>
+  </si>
+  <si>
+    <t>Final Test with Data Augmentation</t>
+  </si>
+  <si>
+    <t>Final Test without Data Augmentation</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -533,48 +536,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB31E689-31B2-4A37-8345-36EDDD320296}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>0.17419999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C2">
-        <v>0.93989999999999996</v>
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>0.25900000000000001</v>
+        <v>1.056</v>
       </c>
       <c r="C3">
-        <v>0.9587</v>
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.93989999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27BEFCB-00D8-4ED8-9ABE-0654EE079AF5}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,21 +614,21 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
         <v>64</v>
@@ -622,10 +636,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>256</v>
@@ -633,10 +647,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>64</v>
@@ -644,10 +658,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>32</v>
@@ -655,10 +669,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -666,10 +680,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -677,10 +691,10 @@
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -688,10 +702,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -699,35 +713,35 @@
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>64</v>
@@ -735,21 +749,21 @@
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -757,10 +771,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>8</v>
@@ -768,10 +782,10 @@
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4">
         <v>256</v>
@@ -779,21 +793,21 @@
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>2.0760000000000001E-2</v>
@@ -801,10 +815,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4">
         <v>7.5630000000000003E-3</v>
@@ -812,10 +826,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>16</v>
@@ -834,7 +848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DF5A3D-3CEF-40E6-9261-EBD515883636}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
